--- a/Data/EC/NIT-9013298688.xlsx
+++ b/Data/EC/NIT-9013298688.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D16B7C3-DC7A-4677-B5F8-42A2931235F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9FB3604-19D0-454E-B7F4-459325565AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{63C1FB67-DE7E-47E4-8347-C103F8C0D86D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7FC635C9-EBA6-48FE-8C25-37C6C40A4ADF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,73 +65,73 @@
     <t>CC</t>
   </si>
   <si>
+    <t>22972153</t>
+  </si>
+  <si>
+    <t>NERLIDES HERRERA ROCHA</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>1047484979</t>
+  </si>
+  <si>
+    <t>YARED ADELA LOPEZ BELTRAN</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>1926974</t>
+  </si>
+  <si>
+    <t>BREYNER JOSE GREGORIO DIAZ GRANADOS AVILE</t>
+  </si>
+  <si>
+    <t>1100340474</t>
+  </si>
+  <si>
+    <t>ELIAS CASTILLO MERCADO</t>
+  </si>
+  <si>
+    <t>1047504345</t>
+  </si>
+  <si>
+    <t>JOSE CARREÑO PEREZ</t>
+  </si>
+  <si>
     <t>1002468532</t>
   </si>
   <si>
     <t>EMERSON ALVAREZ LORA</t>
   </si>
   <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>1047504345</t>
-  </si>
-  <si>
-    <t>JOSE CARREÑO PEREZ</t>
-  </si>
-  <si>
-    <t>22972153</t>
-  </si>
-  <si>
-    <t>NERLIDES HERRERA ROCHA</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>1926974</t>
-  </si>
-  <si>
-    <t>BREYNER JOSE GREGORIO DIAZ GRANADOS AVILE</t>
-  </si>
-  <si>
-    <t>1100340474</t>
-  </si>
-  <si>
-    <t>ELIAS CASTILLO MERCADO</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>1047484979</t>
-  </si>
-  <si>
-    <t>YARED ADELA LOPEZ BELTRAN</t>
-  </si>
-  <si>
     <t>1143406188</t>
   </si>
   <si>
     <t>SARAY MARITZA RIOS NAVARRO</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -545,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35893571-2744-A56D-1380-4CD250612F69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762CAC56-AFC8-9439-90E9-578ECE68ECD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB58A9C-5E73-42ED-85B6-4A06D14C8B5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8F22EF-2DF5-428C-9F90-2CEBC05ED554}">
   <dimension ref="B2:J75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1088,13 +1088,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
@@ -1111,13 +1111,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
@@ -1131,16 +1131,16 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
@@ -1157,13 +1157,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1186,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1203,19 +1203,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1226,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1249,19 +1249,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1272,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1295,13 +1295,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F26" s="18">
         <v>46400</v>
@@ -1315,22 +1315,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1341,19 +1341,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F28" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1361,22 +1361,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="F29" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1387,19 +1387,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1407,22 +1407,22 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1430,16 +1430,16 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1453,7 +1453,7 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C33" s="16" t="s">
         <v>22</v>
@@ -1462,13 +1462,13 @@
         <v>23</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F33" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1476,16 +1476,16 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C35" s="16" t="s">
         <v>22</v>
@@ -1508,13 +1508,13 @@
         <v>23</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F35" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1522,16 +1522,16 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1545,16 +1545,16 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>17</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>27</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1568,16 +1568,16 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1594,13 +1594,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1617,13 +1617,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1646,13 +1646,13 @@
         <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F41" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1663,13 +1663,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
@@ -1683,16 +1683,16 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F43" s="18">
         <v>40000</v>
@@ -1709,13 +1709,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1732,13 +1732,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1761,13 +1761,13 @@
         <v>25</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F46" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G46" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1778,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1801,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F48" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1824,13 +1824,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F49" s="18">
         <v>40000</v>
@@ -1847,13 +1847,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -1870,19 +1870,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F51" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G51" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1890,16 +1890,16 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>16</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>29</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -1916,13 +1916,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F53" s="18">
         <v>40000</v>
@@ -1939,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -1962,19 +1962,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F55" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G55" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -1985,19 +1985,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F56" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G56" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2005,16 +2005,16 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
@@ -2031,19 +2031,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F58" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G58" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2054,13 +2054,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F59" s="18">
         <v>40000</v>
@@ -2077,13 +2077,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
@@ -2100,13 +2100,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2123,13 +2123,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F62" s="18">
         <v>40000</v>
@@ -2146,19 +2146,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F63" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G63" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2169,19 +2169,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F64" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G64" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2192,19 +2192,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="F65" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G65" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2212,22 +2212,22 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F66" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G66" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2238,19 +2238,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F67" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G67" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2261,13 +2261,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F68" s="18">
         <v>46400</v>
@@ -2284,13 +2284,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F69" s="24">
         <v>46400</v>

--- a/Data/EC/NIT-9013298688.xlsx
+++ b/Data/EC/NIT-9013298688.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9FB3604-19D0-454E-B7F4-459325565AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB95523-E110-450F-AF86-961104B25256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7FC635C9-EBA6-48FE-8C25-37C6C40A4ADF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{91597EDE-B8B2-4EFC-AF2D-2BAA4A9B291F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,67 +71,67 @@
     <t>NERLIDES HERRERA ROCHA</t>
   </si>
   <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>1926974</t>
+  </si>
+  <si>
+    <t>BREYNER JOSE GREGORIO DIAZ GRANADOS AVILE</t>
+  </si>
+  <si>
+    <t>1100340474</t>
+  </si>
+  <si>
+    <t>ELIAS CASTILLO MERCADO</t>
+  </si>
+  <si>
+    <t>1047504345</t>
+  </si>
+  <si>
+    <t>JOSE CARREÑO PEREZ</t>
+  </si>
+  <si>
+    <t>1002468532</t>
+  </si>
+  <si>
+    <t>EMERSON ALVAREZ LORA</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>1047484979</t>
+  </si>
+  <si>
+    <t>YARED ADELA LOPEZ BELTRAN</t>
+  </si>
+  <si>
+    <t>1143406188</t>
+  </si>
+  <si>
+    <t>SARAY MARITZA RIOS NAVARRO</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
     <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>1047484979</t>
-  </si>
-  <si>
-    <t>YARED ADELA LOPEZ BELTRAN</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>1926974</t>
-  </si>
-  <si>
-    <t>BREYNER JOSE GREGORIO DIAZ GRANADOS AVILE</t>
-  </si>
-  <si>
-    <t>1100340474</t>
-  </si>
-  <si>
-    <t>ELIAS CASTILLO MERCADO</t>
-  </si>
-  <si>
-    <t>1047504345</t>
-  </si>
-  <si>
-    <t>JOSE CARREÑO PEREZ</t>
-  </si>
-  <si>
-    <t>1002468532</t>
-  </si>
-  <si>
-    <t>EMERSON ALVAREZ LORA</t>
-  </si>
-  <si>
-    <t>1143406188</t>
-  </si>
-  <si>
-    <t>SARAY MARITZA RIOS NAVARRO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -230,7 +230,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -243,9 +245,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,23 +445,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,10 +489,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{762CAC56-AFC8-9439-90E9-578ECE68ECD6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB997307-6752-D106-17E8-46B434413DB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,7 +896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8F22EF-2DF5-428C-9F90-2CEBC05ED554}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E602AFE-E493-431E-8681-C72B268066ED}">
   <dimension ref="B2:J75"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1085,16 +1085,16 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
@@ -1111,13 +1111,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
@@ -1134,13 +1134,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>40000</v>
@@ -1157,13 +1157,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1186,7 +1186,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1203,19 +1203,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1223,16 +1223,16 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1249,19 +1249,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1272,19 +1272,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1301,13 +1301,13 @@
         <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1318,13 +1318,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F27" s="18">
         <v>46400</v>
@@ -1341,19 +1341,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1364,13 +1364,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F29" s="18">
         <v>46400</v>
@@ -1384,22 +1384,22 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1407,16 +1407,16 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1430,16 +1430,16 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1453,16 +1453,16 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1476,22 +1476,22 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1499,16 +1499,16 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>22</v>
@@ -1531,13 +1531,13 @@
         <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1545,16 +1545,16 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1568,16 +1568,16 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1594,13 +1594,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1617,13 +1617,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1646,13 +1646,13 @@
         <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1663,13 +1663,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F42" s="18">
         <v>40000</v>
@@ -1686,19 +1686,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1706,16 +1706,16 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1732,13 +1732,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F45" s="18">
         <v>40000</v>
@@ -1755,13 +1755,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F46" s="18">
         <v>40000</v>
@@ -1778,13 +1778,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1801,19 +1801,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F48" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G48" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1824,13 +1824,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F49" s="18">
         <v>40000</v>
@@ -1847,19 +1847,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F50" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G50" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1867,16 +1867,16 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F51" s="18">
         <v>40000</v>
@@ -1893,13 +1893,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -1916,13 +1916,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F53" s="18">
         <v>40000</v>
@@ -1939,13 +1939,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -1962,19 +1962,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F55" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G55" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -1985,13 +1985,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2008,19 +2008,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F57" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G57" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2028,16 +2028,16 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2054,13 +2054,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F59" s="18">
         <v>40000</v>
@@ -2077,13 +2077,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
@@ -2100,13 +2100,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2123,19 +2123,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F62" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G62" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2146,19 +2146,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F63" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G63" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2169,13 +2169,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D64" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F64" s="18">
         <v>46400</v>
@@ -2189,22 +2189,22 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D65" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F65" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G65" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2215,19 +2215,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D66" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E66" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F66" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G66" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2238,19 +2238,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D67" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F67" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G67" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2261,19 +2261,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D68" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E68" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F68" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G68" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2284,13 +2284,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D69" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>17</v>
       </c>
       <c r="F69" s="24">
         <v>46400</v>
